--- a/Rover Project Budget.xlsx
+++ b/Rover Project Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Abdelrahman\University\Technical Teams\Torpedo\Rover_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423DDE54-339E-405D-9796-F0C5A78B6E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E91095B-80BD-4F6A-AD8A-A665A0FA79BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{54582110-3972-485A-B4F3-B6DCBCED3B6E}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Capacitors</t>
+  </si>
+  <si>
+    <t>Pcb with components</t>
+  </si>
+  <si>
+    <t>regulators and stuff</t>
+  </si>
+  <si>
+    <t>acid</t>
   </si>
 </sst>
 </file>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6D0A54-75B1-4997-9DAB-FB578380BE60}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,8 +733,8 @@
         <v>22</v>
       </c>
       <c r="G11" cm="1">
-        <f t="array" ref="G11">SUM(C2:C12*D2:D12) +E20</f>
-        <v>275.8</v>
+        <f t="array" ref="G11">SUM(C2:C12*D2:D12) +E20+C21+C22+C23</f>
+        <v>379.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -750,7 +759,7 @@
       </c>
       <c r="G12">
         <f>G10-G11</f>
-        <v>224.2</v>
+        <v>120.59999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,6 +806,45 @@
       </c>
       <c r="E20">
         <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>15.6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Rover Project Budget.xlsx
+++ b/Rover Project Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Abdelrahman\University\Technical Teams\Torpedo\Rover_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E91095B-80BD-4F6A-AD8A-A665A0FA79BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2347543A-4D88-449E-9E30-715E4996803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{54582110-3972-485A-B4F3-B6DCBCED3B6E}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -90,36 +90,15 @@
     <t>Encoder</t>
   </si>
   <si>
-    <t>Transistors</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>Fly Back diode</t>
-  </si>
-  <si>
-    <t>Wires</t>
-  </si>
-  <si>
     <t>Bought</t>
   </si>
   <si>
-    <t>Chasis</t>
-  </si>
-  <si>
-    <t>kasa7a</t>
-  </si>
-  <si>
     <t>Battery</t>
   </si>
   <si>
     <t>Battery Holder</t>
   </si>
   <si>
-    <t>Regulators</t>
-  </si>
-  <si>
     <t>Phone Holder</t>
   </si>
   <si>
@@ -135,19 +114,19 @@
     <t>Motor driver</t>
   </si>
   <si>
-    <t>chasis</t>
-  </si>
-  <si>
     <t>Capacitors</t>
   </si>
   <si>
     <t>Pcb with components</t>
   </si>
   <si>
-    <t>regulators and stuff</t>
-  </si>
-  <si>
     <t>acid</t>
+  </si>
+  <si>
+    <t>regulators and others</t>
+  </si>
+  <si>
+    <t>Wires bunch</t>
   </si>
 </sst>
 </file>
@@ -540,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6D0A54-75B1-4997-9DAB-FB578380BE60}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -602,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">B3*C3</f>
+        <f t="shared" ref="E3:E8" si="0">B3*C3</f>
         <v>35</v>
       </c>
     </row>
@@ -680,7 +659,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -689,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -698,15 +677,41 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f>B9*C9</f>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>14.4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f>B10*C10</f>
+        <v>14.4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>500</v>
@@ -714,136 +719,120 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" ref="E11:E16" si="1">B11*C11</f>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G11" cm="1">
-        <f t="array" ref="G11">SUM(C2:C12*D2:D12) +E20+C21+C22+C23</f>
-        <v>379.40000000000003</v>
+        <f t="array" ref="G11">SUM(C2:C16*D2:D16)</f>
+        <v>417.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>14.4</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>14.4</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <f>G10-G11</f>
-        <v>120.59999999999997</v>
+        <v>82.599999999999966</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>15.6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>68</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>15.6</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
